--- a/myApp/patient_data.xlsx
+++ b/myApp/patient_data.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,6 +451,11 @@
           <t>ahmed</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>grgs</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -460,7 +465,10 @@
         <v>45592</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>45618</v>
+        <v>45617</v>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>45625</v>
       </c>
     </row>
     <row r="3">
@@ -474,7 +482,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>hnj</t>
+          <t>nmn</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>jbnk</t>
         </is>
       </c>
     </row>
@@ -486,7 +499,10 @@
         <v>555555555</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -503,6 +519,11 @@
           <t>ahmed@gmail.com</t>
         </is>
       </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>mcain@example.com</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -512,7 +533,10 @@
         <v>45598</v>
       </c>
       <c r="C6" s="3" t="n">
-        <v>45604</v>
+        <v>45622</v>
+      </c>
+      <c r="D6" s="3" t="n">
+        <v>45610</v>
       </c>
     </row>
     <row r="7">
@@ -526,7 +550,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>jni</t>
+          <t xml:space="preserve">mn </t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>hkn</t>
         </is>
       </c>
     </row>
